--- a/遅延損金計算/遅延損害金計算式.xlsx
+++ b/遅延損金計算/遅延損害金計算式.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atsu0\OneDrive\デスクトップ\遅延損金計算\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\遅延損金計算\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3ECBAB-124F-4D98-8E98-D06E94D31024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9EABAE-D0CC-4B06-A43F-1443431F891E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="2595" windowWidth="21600" windowHeight="11295" xr2:uid="{3E7C6E9D-FC4E-4A5A-818D-142E4EFCE077}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{3E7C6E9D-FC4E-4A5A-818D-142E4EFCE077}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -144,7 +137,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
   </cellXfs>
@@ -465,7 +458,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -479,11 +472,11 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>9900</v>
+        <v>13200</v>
       </c>
       <c r="E1" t="str">
         <f>B1&amp;"×"&amp;"0.146 ×"&amp;B3&amp;"÷ 365 ="&amp;ROUNDUP(B5,0)</f>
-        <v>9900×0.146 ×33÷ 365 =131</v>
+        <v>13200×0.146 ×33÷ 365 =175</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
@@ -510,7 +503,7 @@
       </c>
       <c r="B5" s="4">
         <f>B1*B2*B3/B4</f>
-        <v>130.67999999999998</v>
+        <v>174.23999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -519,7 +512,7 @@
       </c>
       <c r="B6" s="5">
         <f>B1+B5</f>
-        <v>10030.68</v>
+        <v>13374.24</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
